--- a/pabi_asset_import_batch/xlsx_template/export_asset.xlsx
+++ b/pabi_asset_import_batch/xlsx_template/export_asset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955D2215-4437-4AC2-9CF8-2C7437FACF50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AB090B-AC3A-4D4D-AE77-F3AF71E9092F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -632,7 +632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -645,7 +645,7 @@
     <col min="5" max="5" width="12.21875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="15.21875" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" customWidth="1"/>
     <col min="10" max="10" width="12.44140625" customWidth="1"/>
     <col min="11" max="11" width="22.21875" customWidth="1"/>
@@ -654,26 +654,26 @@
     <col min="14" max="14" width="10.88671875" customWidth="1"/>
     <col min="15" max="15" width="35.77734375" customWidth="1"/>
     <col min="16" max="16" width="11.33203125" customWidth="1"/>
-    <col min="17" max="17" width="9" customWidth="1"/>
+    <col min="17" max="17" width="18.88671875" customWidth="1"/>
     <col min="18" max="18" width="14.6640625" customWidth="1"/>
     <col min="19" max="19" width="15" customWidth="1"/>
     <col min="20" max="20" width="14.88671875" customWidth="1"/>
     <col min="21" max="21" width="19.33203125" customWidth="1"/>
     <col min="22" max="22" width="31.21875" customWidth="1"/>
     <col min="23" max="23" width="28.21875" customWidth="1"/>
-    <col min="24" max="24" width="17.44140625" customWidth="1"/>
-    <col min="25" max="25" width="7.5546875" customWidth="1"/>
-    <col min="26" max="26" width="7" customWidth="1"/>
+    <col min="24" max="24" width="24.6640625" customWidth="1"/>
+    <col min="25" max="25" width="17.88671875" customWidth="1"/>
+    <col min="26" max="26" width="9.21875" customWidth="1"/>
     <col min="27" max="27" width="9.6640625" customWidth="1"/>
     <col min="28" max="28" width="12.44140625" customWidth="1"/>
     <col min="29" max="29" width="18.44140625" customWidth="1"/>
     <col min="30" max="30" width="19.33203125" customWidth="1"/>
     <col min="31" max="31" width="20.21875" customWidth="1"/>
     <col min="32" max="32" width="13.77734375" customWidth="1"/>
-    <col min="33" max="33" width="9" customWidth="1"/>
-    <col min="34" max="34" width="8" customWidth="1"/>
+    <col min="33" max="33" width="17.5546875" customWidth="1"/>
+    <col min="34" max="34" width="12.5546875" customWidth="1"/>
     <col min="35" max="35" width="8.21875" customWidth="1"/>
-    <col min="37" max="37" width="6.88671875" customWidth="1"/>
+    <col min="37" max="37" width="9.44140625" customWidth="1"/>
     <col min="38" max="38" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
